--- a/Datafiles/revisedPUCs_2017Feb08.xlsx
+++ b/Datafiles/revisedPUCs_2017Feb08.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Lab\HEM\CPDat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlyons\Documents\code\qed_hem\hem_app\Datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
     <sheet name="General Categories" sheetId="2" r:id="rId2"/>
     <sheet name="PUCs" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5235,36 +5235,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1586</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1588</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1590</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1592</v>
       </c>
@@ -5296,62 +5296,62 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1613</v>
       </c>
@@ -5365,17 +5365,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="167.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="167.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1579</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1567</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1568</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1569</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1570</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1401</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1385</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1389</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1379</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1380</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1388</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1382</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1383</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1384</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1387</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1381</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1566</v>
       </c>
@@ -5539,26 +5539,26 @@
       <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5546875" customWidth="1"/>
-    <col min="14" max="14" width="33.77734375" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" customWidth="1"/>
+    <col min="14" max="14" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>1386</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>1386</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>1386</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>1386</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>196</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>243</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>235</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>1378</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>239</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>506</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>231</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>516</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>527</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>520</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>524</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>549</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>562</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>558</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>565</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>615</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>619</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>1536</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>530</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>534</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>542</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>538</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>569</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>580</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>611</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>552</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>577</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>573</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>627</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>623</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>703</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>699</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>630</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>638</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>634</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>645</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>641</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>648</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>584</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>588</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>599</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>603</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>607</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>652</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>659</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>656</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>662</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>670</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>666</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>677</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>673</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>680</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>684</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>692</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>688</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>695</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>706</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>714</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>710</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L104" t="s">
         <v>1401</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L105" t="s">
         <v>1401</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L106" t="s">
         <v>1401</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L107" t="s">
         <v>1401</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L108" t="s">
         <v>1401</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L109" t="s">
         <v>1401</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L110" t="s">
         <v>1401</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L111" t="s">
         <v>1401</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L112" t="s">
         <v>1401</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L113" t="s">
         <v>1401</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L114" t="s">
         <v>1401</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L115" t="s">
         <v>1401</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>497</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>502</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>596</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>592</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L120" t="s">
         <v>1401</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L121" t="s">
         <v>1401</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L122" t="s">
         <v>1401</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L123" t="s">
         <v>1401</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L124" t="s">
         <v>1401</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L125" t="s">
         <v>1401</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L126" t="s">
         <v>1401</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L127" t="s">
         <v>1401</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L128" t="s">
         <v>1401</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L129" t="s">
         <v>1401</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>162</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>159</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>104</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>100</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>556</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L142" t="s">
         <v>1389</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>110</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>115</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>123</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>126</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>340</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>335</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>391</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>387</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>493</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L155" t="s">
         <v>1379</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L156" t="s">
         <v>1379</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>343</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>347</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>355</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>351</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>358</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>365</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>361</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>23</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>29</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>461</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>96</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>372</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>380</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>376</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>394</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>399</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>406</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>403</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>413</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>409</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>416</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>420</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>432</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>436</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>442</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>439</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>465</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>469</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>476</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>472</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>424</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>445</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>428</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>449</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>453</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>457</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L197" t="s">
         <v>1379</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L198" t="s">
         <v>1379</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L199" t="s">
         <v>1379</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L200" t="s">
         <v>1379</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L201" t="s">
         <v>1379</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L202" t="s">
         <v>1379</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>479</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>486</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>483</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>368</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>383</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L208" t="s">
         <v>1379</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="209" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L209" t="s">
         <v>1379</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="210" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L210" t="s">
         <v>1379</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="211" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L211" t="s">
         <v>1379</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="212" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L212" t="s">
         <v>1379</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="213" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L213" t="s">
         <v>1379</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="214" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L214" t="s">
         <v>1379</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="215" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L215" t="s">
         <v>1379</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L216" t="s">
         <v>1379</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="217" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L217" t="s">
         <v>1379</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="218" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L218" t="s">
         <v>1379</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="219" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L219" t="s">
         <v>1379</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="220" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L220" t="s">
         <v>1379</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="221" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L221" t="s">
         <v>1379</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="222" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L222" t="s">
         <v>1379</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="223" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L223" t="s">
         <v>1379</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="224" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L224" t="s">
         <v>1379</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>489</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>717</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>730</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>738</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>734</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>741</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>745</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>722</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>726</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>749</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>773</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>781</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>753</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>758</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>770</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>762</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>766</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>777</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L244" t="s">
         <v>1388</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L245" t="s">
         <v>1388</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L246" t="s">
         <v>1388</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>128</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>133</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>790</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>785</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>837</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>845</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>848</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>821</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>863</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>867</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>871</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1121</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1117</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1124</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1128</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>856</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>852</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>859</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>797</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>801</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>805</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>809</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>813</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>817</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>829</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>922</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L273" t="s">
         <v>1382</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L274" t="s">
         <v>1382</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L275" t="s">
         <v>1382</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>893</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>897</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1189</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1185</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1260</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1268</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1272</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>901</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>912</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>905</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>909</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L287" t="s">
         <v>1382</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>887</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>883</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>937</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>941</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>945</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>959</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>966</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>974</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>970</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>977</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>985</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>990</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>993</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1000</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>997</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L303" t="s">
         <v>1382</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L304" t="s">
         <v>1382</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L305" t="s">
         <v>1382</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1007</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1003</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1018</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1014</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1132</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1136</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1142</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1139</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1021</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1025</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1046</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1029</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1034</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1038</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1042</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1049</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1053</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1057</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L324" t="s">
         <v>1382</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L325" t="s">
         <v>1382</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L326" t="s">
         <v>1382</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L327" t="s">
         <v>1382</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L328" t="s">
         <v>1382</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L329" t="s">
         <v>1382</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>930</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>926</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L332" t="s">
         <v>1382</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>933</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1073</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1070</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1061</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1066</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1083</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1080</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1076</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1086</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1090</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1114</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1109</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1111</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1094</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1098</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1102</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1106</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1145</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1216</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1212</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1230</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1235</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L355" t="s">
         <v>1382</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L356" t="s">
         <v>1382</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1149</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>841</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>890</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>948</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>952</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>955</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>962</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>981</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1010</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1153</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1157</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1161</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1165</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1169</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1173</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1177</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1181</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1264</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1192</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1196</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1200</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1204</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1208</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1223</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1219</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1226</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L383" t="s">
         <v>1382</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L384" t="s">
         <v>1382</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L385" t="s">
         <v>1382</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L386" t="s">
         <v>1382</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>793</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>879</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>919</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>915</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1238</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1242</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1275</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>825</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>833</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>875</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1245</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1250</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1257</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1254</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1284</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1279</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1291</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1287</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1313</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1310</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1294</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1298</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1302</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1306</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1333</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1330</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1316</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1320</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1323</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1326</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1336</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L418" t="s">
         <v>1384</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L419" t="s">
         <v>1384</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L420" t="s">
         <v>1384</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L421" t="s">
         <v>1384</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L422" t="s">
         <v>1384</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1353</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1349</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1356</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1361</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1365</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1373</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1369</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1345</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L431" t="s">
         <v>1384</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1340</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="433" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="433" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L433" t="s">
         <v>1387</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="434" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="434" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L434" t="s">
         <v>1387</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="435" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="435" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L435" t="s">
         <v>1387</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="436" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="436" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L436" t="s">
         <v>1387</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="437" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="437" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L437" t="s">
         <v>1387</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="438" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="438" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L438" t="s">
         <v>1387</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="439" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="439" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L439" t="s">
         <v>1387</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="440" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="440" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L440" t="s">
         <v>1387</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="441" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="441" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L441" t="s">
         <v>1387</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="442" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="442" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L442" t="s">
         <v>1387</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="443" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="443" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L443" t="s">
         <v>1387</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="444" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="444" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L444" t="s">
         <v>1387</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="445" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="445" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L445" t="s">
         <v>1387</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="446" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="446" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L446" t="s">
         <v>1387</v>
       </c>
@@ -21544,7 +21544,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="447" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="447" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L447" t="s">
         <v>1387</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="448" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="448" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L448" t="s">
         <v>1387</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L449" t="s">
         <v>1387</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L450" t="s">
         <v>1387</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L451" t="s">
         <v>1387</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L452" t="s">
         <v>1387</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L453" t="s">
         <v>1387</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L454" t="s">
         <v>1387</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L455" t="s">
         <v>1387</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L456" t="s">
         <v>1387</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L457" t="s">
         <v>1387</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>277</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>273</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>300</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>296</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>321</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>317</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>332</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>328</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L466" t="s">
         <v>1381</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>284</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L468" t="s">
         <v>1381</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>288</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>256</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>252</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>292</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>307</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>303</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L475" t="s">
         <v>1381</v>
       </c>
@@ -22391,7 +22391,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>314</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>310</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L478" t="s">
         <v>1381</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L479" t="s">
         <v>1381</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>247</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>263</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>259</v>
       </c>
@@ -22633,7 +22633,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>270</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>266</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>280</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>324</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L487" t="s">
         <v>1381</v>
       </c>
